--- a/docs/CDM/common_datamodel.xlsx
+++ b/docs/CDM/common_datamodel.xlsx
@@ -1121,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A92</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A92</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1291,6 +1291,60 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>omi-ap</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ciap-1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>F71</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Conjuntivitis alérgica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>omi-ap</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ciap-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R97</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R97</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fiebre del heno/rinitis alérgica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>omi-ap</t>
         </is>
@@ -1693,7 +1747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,6 +1892,33 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>cmbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ciap-1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Apnea del sueño</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>omi-ap</t>
         </is>
       </c>
     </row>
